--- a/Completed Projects/Bank Al-Habib Offices at 22nd & 23rd Floor Center Point Karachi/Running Bills/Final/Final Bill (claimed qty bill).xlsx
+++ b/Completed Projects/Bank Al-Habib Offices at 22nd & 23rd Floor Center Point Karachi/Running Bills/Final/Final Bill (claimed qty bill).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Completed Projects\Bank Al-Habib Offices at 22nd &amp; 23rd Floor Center Point Karachi\Running Bills\Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF62FB9E-AFB7-44E1-A549-09740CB28B4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE4D0979-CBA1-45F3-9816-5275AF3FE7FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="147">
   <si>
     <t>Sr.</t>
   </si>
@@ -2738,6 +2738,12 @@
   <si>
     <t>Final Bill</t>
   </si>
+  <si>
+    <t>Verified in IPC 1</t>
+  </si>
+  <si>
+    <t>Verified in IPC 2</t>
+  </si>
 </sst>
 </file>
 
@@ -2749,7 +2755,7 @@
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="97" x14ac:knownFonts="1">
+  <fonts count="98" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -3445,6 +3451,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -3946,7 +3958,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="222">
+  <cellXfs count="223">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -4610,6 +4622,9 @@
     </xf>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4641,8 +4656,8 @@
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>524868</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>19695</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>114945</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6839,17 +6854,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BCF929F-FB20-4935-9641-63EA9CE81B38}">
-  <dimension ref="A4:E33"/>
+  <dimension ref="A4:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.33203125" style="122" customWidth="1"/>
     <col min="2" max="2" width="41.1640625" style="122" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" style="122" customWidth="1"/>
+    <col min="3" max="3" width="22.5" style="122" customWidth="1"/>
     <col min="4" max="4" width="18.33203125" style="122" customWidth="1"/>
     <col min="5" max="5" width="21.6640625" style="122" customWidth="1"/>
     <col min="6" max="16384" width="9.33203125" style="116"/>
@@ -7087,15 +7102,55 @@
         <v>40116974.969999999</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D30" s="124"/>
-      <c r="E30" s="132"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E31" s="124"/>
-    </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E30" s="121">
+        <v>36073541</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E31" s="121">
+        <f>E29-E30</f>
+        <v>4043433.9699999988</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E33" s="124"/>
+    </row>
+    <row r="34" spans="3:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="3:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="222" t="s">
+        <v>145</v>
+      </c>
+      <c r="E35" s="121">
+        <v>35449032</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C36" s="222" t="s">
+        <v>146</v>
+      </c>
+      <c r="E36" s="121">
+        <v>6268508</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="3:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E38" s="121">
+        <f>E36+E35</f>
+        <v>41717540</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E39" s="121">
+        <v>36073541</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E40" s="121">
+        <f>E38-E39</f>
+        <v>5643999</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7116,7 +7171,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E680CEF-CDBB-4B93-8860-904931DE0C82}">
   <dimension ref="A1:X69"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A62" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="P68" sqref="P68"/>
     </sheetView>
   </sheetViews>
@@ -10236,8 +10291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X71"/>
   <sheetViews>
-    <sheetView topLeftCell="B65" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6:O69"/>
+    <sheetView topLeftCell="B17" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L73" sqref="L73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.2"/>
